--- a/dumps/Stocks/Majesco Ltd.xlsx
+++ b/dumps/Stocks/Majesco Ltd.xlsx
@@ -8,11 +8,11 @@
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Trading History'!$A$4:$AD$22</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_B219DBA6_909A_47FC_8670_5C15BDD63E0C_.wvu.FilterData">'Trading History'!$A$4:$AO$28</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_06E6E07E_1629_4624_B083_0BFBE9514571_.wvu.FilterData">'Trading History'!$A$4:$AO$28</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{B219DBA6-909A-47FC-8670-5C15BDD63E0C}" name="Filter 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{06E6E07E-1629-4624-B083-0BFBE9514571}" name="Filter 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -1131,19 +1131,19 @@
       </c>
       <c r="J5" s="42">
         <f>Index!$C$2</f>
-        <v>2006.5</v>
+        <v>1891</v>
       </c>
       <c r="K5" s="43">
         <f t="shared" ref="K5:K22" si="1">IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v>10.30501203</v>
+        <v>9.655462054</v>
       </c>
       <c r="L5" s="44">
         <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v>18067.3654</v>
+        <v>16928.5354</v>
       </c>
       <c r="M5" s="44">
         <f t="shared" ref="M5:M22" si="2">IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v>19808.4654</v>
+        <v>18669.6354</v>
       </c>
       <c r="N5" s="45">
         <f t="shared" ref="N5:N22" si="3">IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
@@ -1151,15 +1151,15 @@
       </c>
       <c r="O5" s="43">
         <f t="shared" ref="O5:O22" si="4">IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v>10.30501203</v>
+        <v>9.655462054</v>
       </c>
       <c r="P5" s="44">
         <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v>18067.3654</v>
+        <v>16928.5354</v>
       </c>
       <c r="Q5" s="44">
         <f t="shared" ref="Q5:Q22" si="5">IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v>19808.4654</v>
+        <v>18669.6354</v>
       </c>
       <c r="R5" s="44">
         <f t="shared" ref="R5:R22" si="6">IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
@@ -1226,19 +1226,19 @@
       </c>
       <c r="J6" s="42">
         <f>Index!$C$2</f>
-        <v>2006.5</v>
+        <v>1891</v>
       </c>
       <c r="K6" s="43">
         <f t="shared" si="1"/>
-        <v>9.198328223</v>
+        <v>8.612486213</v>
       </c>
       <c r="L6" s="44">
         <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v>17880.8142</v>
+        <v>16741.9842</v>
       </c>
       <c r="M6" s="44">
         <f t="shared" si="2"/>
-        <v>19811.1142</v>
+        <v>18672.2842</v>
       </c>
       <c r="N6" s="45">
         <f t="shared" si="3"/>
@@ -1262,15 +1262,15 @@
       </c>
       <c r="S6" s="46">
         <f t="shared" si="7"/>
-        <v>9.198328223</v>
+        <v>8.612486213</v>
       </c>
       <c r="T6" s="47">
         <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v>17880.8142</v>
+        <v>16741.9842</v>
       </c>
       <c r="U6" s="47">
         <f t="shared" si="8"/>
-        <v>19811.1142</v>
+        <v>18672.2842</v>
       </c>
       <c r="V6" s="47">
         <f t="shared" si="9"/>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="J7" s="42">
         <f>Index!$C$2</f>
-        <v>2006.5</v>
+        <v>1891</v>
       </c>
       <c r="K7" s="43" t="str">
         <f t="shared" si="1"/>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="J8" s="42">
         <f>Index!$C$2</f>
-        <v>2006.5</v>
+        <v>1891</v>
       </c>
       <c r="K8" s="43" t="str">
         <f t="shared" si="1"/>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="J9" s="42">
         <f>Index!$C$2</f>
-        <v>2006.5</v>
+        <v>1891</v>
       </c>
       <c r="K9" s="43" t="str">
         <f t="shared" si="1"/>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="J10" s="42">
         <f>Index!$C$2</f>
-        <v>2006.5</v>
+        <v>1891</v>
       </c>
       <c r="K10" s="43" t="str">
         <f t="shared" si="1"/>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="J11" s="42">
         <f>Index!$C$2</f>
-        <v>2006.5</v>
+        <v>1891</v>
       </c>
       <c r="K11" s="43" t="str">
         <f t="shared" si="1"/>
@@ -1835,7 +1835,7 @@
       </c>
       <c r="J12" s="42">
         <f>Index!$C$2</f>
-        <v>2006.5</v>
+        <v>1891</v>
       </c>
       <c r="K12" s="43" t="str">
         <f t="shared" si="1"/>
@@ -1943,7 +1943,7 @@
       </c>
       <c r="J13" s="42">
         <f>Index!$C$2</f>
-        <v>2006.5</v>
+        <v>1891</v>
       </c>
       <c r="K13" s="43" t="str">
         <f t="shared" si="1"/>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="J14" s="42">
         <f>Index!$C$2</f>
-        <v>2006.5</v>
+        <v>1891</v>
       </c>
       <c r="K14" s="43" t="str">
         <f t="shared" si="1"/>
@@ -2159,7 +2159,7 @@
       </c>
       <c r="J15" s="42">
         <f>Index!$C$2</f>
-        <v>2006.5</v>
+        <v>1891</v>
       </c>
       <c r="K15" s="43" t="str">
         <f t="shared" si="1"/>
@@ -2267,7 +2267,7 @@
       </c>
       <c r="J16" s="42">
         <f>Index!$C$2</f>
-        <v>2006.5</v>
+        <v>1891</v>
       </c>
       <c r="K16" s="43" t="str">
         <f t="shared" si="1"/>
@@ -2375,7 +2375,7 @@
       </c>
       <c r="J17" s="42">
         <f>Index!$C$2</f>
-        <v>2006.5</v>
+        <v>1891</v>
       </c>
       <c r="K17" s="43" t="str">
         <f t="shared" si="1"/>
@@ -2483,7 +2483,7 @@
       </c>
       <c r="J18" s="42">
         <f>Index!$C$2</f>
-        <v>2006.5</v>
+        <v>1891</v>
       </c>
       <c r="K18" s="43" t="str">
         <f t="shared" si="1"/>
@@ -2591,7 +2591,7 @@
       </c>
       <c r="J19" s="42">
         <f>Index!$C$2</f>
-        <v>2006.5</v>
+        <v>1891</v>
       </c>
       <c r="K19" s="43" t="str">
         <f t="shared" si="1"/>
@@ -2699,7 +2699,7 @@
       </c>
       <c r="J20" s="42">
         <f>Index!$C$2</f>
-        <v>2006.5</v>
+        <v>1891</v>
       </c>
       <c r="K20" s="43" t="str">
         <f t="shared" si="1"/>
@@ -2807,7 +2807,7 @@
       </c>
       <c r="J21" s="42">
         <f>Index!$C$2</f>
-        <v>2006.5</v>
+        <v>1891</v>
       </c>
       <c r="K21" s="43" t="str">
         <f t="shared" si="1"/>
@@ -2915,7 +2915,7 @@
       </c>
       <c r="J22" s="42">
         <f>Index!$C$2</f>
-        <v>2006.5</v>
+        <v>1891</v>
       </c>
       <c r="K22" s="43" t="str">
         <f t="shared" si="1"/>
@@ -18755,7 +18755,7 @@
   </sheetData>
   <autoFilter ref="$A$4:$AD$22"/>
   <customSheetViews>
-    <customSheetView guid="{B219DBA6-909A-47FC-8670-5C15BDD63E0C}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{06E6E07E-1629-4624-B083-0BFBE9514571}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$4:$AO$28"/>
     </customSheetView>
   </customSheetViews>
@@ -18854,8 +18854,8 @@
         <v>14</v>
       </c>
       <c r="C2" s="60">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE($C$1, ""price"")"),2006.5)</f>
-        <v>2006.5</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE($C$1, ""price"")"),1891.0)</f>
+        <v>1891</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="61" t="s">
@@ -18918,8 +18918,8 @@
         <v>34</v>
       </c>
       <c r="C4" s="60">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE($C$1, ""low52"")"),1887.0)</f>
-        <v>1887</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE($C$1, ""low52"")"),1855.0)</f>
+        <v>1855</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -19083,7 +19083,7 @@
       </c>
       <c r="C9" s="62">
         <f>IFERROR(Index!C10/(Index!C8*Index!$C$2), 0)</f>
-        <v>0.8957931622</v>
+        <v>0.8902834373</v>
       </c>
       <c r="D9" s="63"/>
       <c r="E9" s="73" t="s">
@@ -19091,7 +19091,7 @@
       </c>
       <c r="F9" s="62">
         <f>IFERROR(Index!F10/(Index!F8*Index!$C$2), 0)</f>
-        <v>0.900441834</v>
+        <v>0.8952160444</v>
       </c>
       <c r="G9" s="63"/>
       <c r="H9" s="74" t="s">
@@ -19099,7 +19099,7 @@
       </c>
       <c r="I9" s="62">
         <f>IFERROR(Index!I10/(Index!I8*Index!$C$2), 0)</f>
-        <v>0.8911444904</v>
+        <v>0.8853508302</v>
       </c>
       <c r="J9" s="63"/>
       <c r="K9" s="75" t="s">
@@ -19107,7 +19107,7 @@
       </c>
       <c r="L9" s="62">
         <f>IFERROR(Index!L10/(Index!L8*Index!$C$2), 0)</f>
-        <v>0.0185566682</v>
+        <v>0.01969008712</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -19130,7 +19130,7 @@
       </c>
       <c r="C10" s="76">
         <f>SUM('Trading History'!$L$4:$L1005)</f>
-        <v>35948.1796</v>
+        <v>33670.5196</v>
       </c>
       <c r="D10" s="63"/>
       <c r="E10" s="73" t="s">
@@ -19138,7 +19138,7 @@
       </c>
       <c r="F10" s="76">
         <f>SUM('Trading History'!$P$4:$P1005)</f>
-        <v>18067.3654</v>
+        <v>16928.5354</v>
       </c>
       <c r="G10" s="63"/>
       <c r="H10" s="74" t="s">
@@ -19146,7 +19146,7 @@
       </c>
       <c r="I10" s="76">
         <f>SUM('Trading History'!$T$4:$T1005)</f>
-        <v>17880.8142</v>
+        <v>16741.9842</v>
       </c>
       <c r="J10" s="63"/>
       <c r="K10" s="75" t="s">
@@ -19224,7 +19224,7 @@
       </c>
       <c r="C12" s="76">
         <f>SUM('Trading History'!$M$4:$M1005)</f>
-        <v>39619.5796</v>
+        <v>37341.9196</v>
       </c>
       <c r="D12" s="63"/>
       <c r="E12" s="73" t="s">
@@ -19232,7 +19232,7 @@
       </c>
       <c r="F12" s="76">
         <f>SUM('Trading History'!$Q$4:$Q1005)</f>
-        <v>19808.4654</v>
+        <v>18669.6354</v>
       </c>
       <c r="G12" s="63"/>
       <c r="H12" s="74" t="s">
@@ -19240,7 +19240,7 @@
       </c>
       <c r="I12" s="76">
         <f>SUM('Trading History'!$U$4:$U1005)</f>
-        <v>19811.1142</v>
+        <v>18672.2842</v>
       </c>
       <c r="J12" s="63"/>
       <c r="K12" s="75" t="s">
@@ -19379,7 +19379,7 @@
       </c>
       <c r="C16" s="62">
         <f>IFERROR(Index!C17/(Index!C15*Index!$C$2), 0)</f>
-        <v>0.8957931622</v>
+        <v>0.8902834373</v>
       </c>
       <c r="D16" s="63"/>
       <c r="E16" s="73" t="s">
@@ -19387,7 +19387,7 @@
       </c>
       <c r="F16" s="62">
         <f>IFERROR(Index!F17/(Index!F15*Index!$C$2), 0)</f>
-        <v>0.900441834</v>
+        <v>0.8952160444</v>
       </c>
       <c r="G16" s="63"/>
       <c r="H16" s="74" t="s">
@@ -19395,7 +19395,7 @@
       </c>
       <c r="I16" s="62">
         <f>IFERROR(Index!I17/(Index!I15*Index!$C$2), 0)</f>
-        <v>0.8911444904</v>
+        <v>0.8853508302</v>
       </c>
       <c r="J16" s="63"/>
       <c r="K16" s="75" t="s">
@@ -19426,7 +19426,7 @@
       </c>
       <c r="C17" s="76">
         <f>SUMIFS('Trading History'!$L$4:$L1005, 'Trading History'!$K$4:$K1005, CONCAT("&gt;", $A15))</f>
-        <v>35948.1796</v>
+        <v>33670.5196</v>
       </c>
       <c r="D17" s="63"/>
       <c r="E17" s="73" t="s">
@@ -19434,7 +19434,7 @@
       </c>
       <c r="F17" s="76">
         <f>SUMIFS('Trading History'!$P$4:$P1005, 'Trading History'!$O$4:$O1005, CONCAT("&gt;", $A15))</f>
-        <v>18067.3654</v>
+        <v>16928.5354</v>
       </c>
       <c r="G17" s="63"/>
       <c r="H17" s="74" t="s">
@@ -19442,7 +19442,7 @@
       </c>
       <c r="I17" s="76">
         <f>SUMIFS('Trading History'!$T$4:$T1005, 'Trading History'!$S$4:$S1005, CONCAT("&gt;", $A15))</f>
-        <v>17880.8142</v>
+        <v>16741.9842</v>
       </c>
       <c r="J17" s="63"/>
       <c r="K17" s="75" t="s">
@@ -19520,7 +19520,7 @@
       </c>
       <c r="C19" s="76">
         <f>SUMIFS('Trading History'!$M$4:$M1005, 'Trading History'!$K$4:$K1005, CONCAT("&gt;", $A15))</f>
-        <v>39619.5796</v>
+        <v>37341.9196</v>
       </c>
       <c r="D19" s="63"/>
       <c r="E19" s="73" t="s">
@@ -19528,7 +19528,7 @@
       </c>
       <c r="F19" s="76">
         <f>SUMIFS('Trading History'!$Q$4:$Q1005, 'Trading History'!$O$4:$O1005, CONCAT("&gt;", $A15))</f>
-        <v>19808.4654</v>
+        <v>18669.6354</v>
       </c>
       <c r="G19" s="63"/>
       <c r="H19" s="74" t="s">
@@ -19536,7 +19536,7 @@
       </c>
       <c r="I19" s="76">
         <f>SUMIFS('Trading History'!$U$4:$U1005, 'Trading History'!$S$4:$S1005, CONCAT("&gt;", $A15))</f>
-        <v>19811.1142</v>
+        <v>18672.2842</v>
       </c>
       <c r="J19" s="63"/>
       <c r="K19" s="75" t="s">
@@ -19670,7 +19670,7 @@
       </c>
       <c r="C23" s="62">
         <f>IFERROR(Index!C24/(Index!C22*Index!$C$2), 0)</f>
-        <v>0.8957931622</v>
+        <v>0.8902834373</v>
       </c>
       <c r="D23" s="63"/>
       <c r="E23" s="73" t="s">
@@ -19678,7 +19678,7 @@
       </c>
       <c r="F23" s="62">
         <f>IFERROR(Index!F24/(Index!F22*Index!$C$2), 0)</f>
-        <v>0.900441834</v>
+        <v>0.8952160444</v>
       </c>
       <c r="G23" s="63"/>
       <c r="H23" s="74" t="s">
@@ -19686,7 +19686,7 @@
       </c>
       <c r="I23" s="62">
         <f>IFERROR(Index!I24/(Index!I22*Index!$C$2), 0)</f>
-        <v>0.8911444904</v>
+        <v>0.8853508302</v>
       </c>
       <c r="J23" s="63"/>
       <c r="K23" s="75" t="s">
@@ -19717,7 +19717,7 @@
       </c>
       <c r="C24" s="76">
         <f>SUMIFS('Trading History'!$L$4:$L1005, 'Trading History'!$K$4:$K1005, CONCAT("&gt;", $A22))</f>
-        <v>35948.1796</v>
+        <v>33670.5196</v>
       </c>
       <c r="D24" s="63"/>
       <c r="E24" s="73" t="s">
@@ -19725,7 +19725,7 @@
       </c>
       <c r="F24" s="76">
         <f>SUMIFS('Trading History'!$P$4:$P1005, 'Trading History'!$O$4:$O1005, CONCAT("&gt;", $A22))</f>
-        <v>18067.3654</v>
+        <v>16928.5354</v>
       </c>
       <c r="G24" s="63"/>
       <c r="H24" s="74" t="s">
@@ -19733,7 +19733,7 @@
       </c>
       <c r="I24" s="76">
         <f>SUMIFS('Trading History'!$T$4:$T1005, 'Trading History'!$S$4:$S1005, CONCAT("&gt;", $A22))</f>
-        <v>17880.8142</v>
+        <v>16741.9842</v>
       </c>
       <c r="J24" s="63"/>
       <c r="K24" s="75" t="s">
@@ -19811,7 +19811,7 @@
       </c>
       <c r="C26" s="76">
         <f>SUMIFS('Trading History'!$M$4:$M1005, 'Trading History'!$K$4:$K1005, CONCAT("&gt;", $A22))</f>
-        <v>39619.5796</v>
+        <v>37341.9196</v>
       </c>
       <c r="D26" s="63"/>
       <c r="E26" s="73" t="s">
@@ -19819,7 +19819,7 @@
       </c>
       <c r="F26" s="76">
         <f>SUMIFS('Trading History'!$Q$4:$Q1005, 'Trading History'!$O$4:$O1005, CONCAT("&gt;", $A22))</f>
-        <v>19808.4654</v>
+        <v>18669.6354</v>
       </c>
       <c r="G26" s="63"/>
       <c r="H26" s="74" t="s">
@@ -19827,7 +19827,7 @@
       </c>
       <c r="I26" s="76">
         <f>SUMIFS('Trading History'!$U$4:$U1005, 'Trading History'!$S$4:$S1005, CONCAT("&gt;", $A22))</f>
-        <v>19811.1142</v>
+        <v>18672.2842</v>
       </c>
       <c r="J26" s="63"/>
       <c r="K26" s="75" t="s">
@@ -19961,7 +19961,7 @@
       </c>
       <c r="C30" s="62">
         <f>IFERROR(Index!C31/(Index!C29*Index!$C$2), 0)</f>
-        <v>0.8957931622</v>
+        <v>0.8902834373</v>
       </c>
       <c r="D30" s="63"/>
       <c r="E30" s="73" t="s">
@@ -19969,7 +19969,7 @@
       </c>
       <c r="F30" s="62">
         <f>IFERROR(Index!F31/(Index!F29*Index!$C$2), 0)</f>
-        <v>0.900441834</v>
+        <v>0.8952160444</v>
       </c>
       <c r="G30" s="63"/>
       <c r="H30" s="74" t="s">
@@ -19977,7 +19977,7 @@
       </c>
       <c r="I30" s="62">
         <f>IFERROR(Index!I31/(Index!I29*Index!$C$2), 0)</f>
-        <v>0.8911444904</v>
+        <v>0.8853508302</v>
       </c>
       <c r="J30" s="63"/>
       <c r="K30" s="75" t="s">
@@ -19985,7 +19985,7 @@
       </c>
       <c r="L30" s="62">
         <f>IFERROR(Index!L31/(Index!L29*Index!$C$2), 0)</f>
-        <v>0.02564140543</v>
+        <v>0.02720755156</v>
       </c>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
@@ -20008,7 +20008,7 @@
       </c>
       <c r="C31" s="76">
         <f>SUMIFS('Trading History'!$L$4:$L1005, 'Trading History'!$K$4:$K1005, CONCAT("&gt;", $A29))</f>
-        <v>35948.1796</v>
+        <v>33670.5196</v>
       </c>
       <c r="D31" s="63"/>
       <c r="E31" s="73" t="s">
@@ -20016,7 +20016,7 @@
       </c>
       <c r="F31" s="76">
         <f>SUMIFS('Trading History'!$P$4:$P1005, 'Trading History'!$O$4:$O1005, CONCAT("&gt;", $A29))</f>
-        <v>18067.3654</v>
+        <v>16928.5354</v>
       </c>
       <c r="G31" s="63"/>
       <c r="H31" s="74" t="s">
@@ -20024,7 +20024,7 @@
       </c>
       <c r="I31" s="76">
         <f>SUMIFS('Trading History'!$T$4:$T1005, 'Trading History'!$S$4:$S1005, CONCAT("&gt;", $A29))</f>
-        <v>17880.8142</v>
+        <v>16741.9842</v>
       </c>
       <c r="J31" s="63"/>
       <c r="K31" s="75" t="s">
@@ -20102,7 +20102,7 @@
       </c>
       <c r="C33" s="76">
         <f>SUMIFS('Trading History'!$M$4:$M1005, 'Trading History'!$K$4:$K1005, CONCAT("&gt;", $A29))</f>
-        <v>39619.5796</v>
+        <v>37341.9196</v>
       </c>
       <c r="D33" s="63"/>
       <c r="E33" s="73" t="s">
@@ -20110,7 +20110,7 @@
       </c>
       <c r="F33" s="76">
         <f>SUMIFS('Trading History'!$Q$4:$Q1005, 'Trading History'!$O$4:$O1005, CONCAT("&gt;", $A29))</f>
-        <v>19808.4654</v>
+        <v>18669.6354</v>
       </c>
       <c r="G33" s="63"/>
       <c r="H33" s="74" t="s">
@@ -20118,7 +20118,7 @@
       </c>
       <c r="I33" s="76">
         <f>SUMIFS('Trading History'!$U$4:$U1005, 'Trading History'!$S$4:$S1005, CONCAT("&gt;", $A29))</f>
-        <v>19811.1142</v>
+        <v>18672.2842</v>
       </c>
       <c r="J33" s="63"/>
       <c r="K33" s="75" t="s">
@@ -20252,7 +20252,7 @@
       </c>
       <c r="C37" s="62">
         <f>IFERROR(Index!C38/(Index!C36*Index!$C$2), 0)</f>
-        <v>0.8957931622</v>
+        <v>0.8902834373</v>
       </c>
       <c r="D37" s="63"/>
       <c r="E37" s="73" t="s">
@@ -20260,7 +20260,7 @@
       </c>
       <c r="F37" s="62">
         <f>IFERROR(Index!F38/(Index!F36*Index!$C$2), 0)</f>
-        <v>0.900441834</v>
+        <v>0.8952160444</v>
       </c>
       <c r="G37" s="63"/>
       <c r="H37" s="74" t="s">
@@ -20268,7 +20268,7 @@
       </c>
       <c r="I37" s="62">
         <f>IFERROR(Index!I38/(Index!I36*Index!$C$2), 0)</f>
-        <v>0.8911444904</v>
+        <v>0.8853508302</v>
       </c>
       <c r="J37" s="63"/>
       <c r="K37" s="75" t="s">
@@ -20276,7 +20276,7 @@
       </c>
       <c r="L37" s="62">
         <f>IFERROR(Index!L38/(Index!L36*Index!$C$2), 0)</f>
-        <v>0.0246160113</v>
+        <v>0.02611952759</v>
       </c>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
@@ -20299,7 +20299,7 @@
       </c>
       <c r="C38" s="76">
         <f>SUMIFS('Trading History'!$L$4:$L1005, 'Trading History'!$K$4:$K1005, CONCAT("&gt;", $A36))</f>
-        <v>35948.1796</v>
+        <v>33670.5196</v>
       </c>
       <c r="D38" s="63"/>
       <c r="E38" s="73" t="s">
@@ -20307,7 +20307,7 @@
       </c>
       <c r="F38" s="76">
         <f>SUMIFS('Trading History'!$P$4:$P1005, 'Trading History'!$O$4:$O1005, CONCAT("&gt;", $A36))</f>
-        <v>18067.3654</v>
+        <v>16928.5354</v>
       </c>
       <c r="G38" s="63"/>
       <c r="H38" s="74" t="s">
@@ -20315,7 +20315,7 @@
       </c>
       <c r="I38" s="76">
         <f>SUMIFS('Trading History'!$T$4:$T1005, 'Trading History'!$S$4:$S1005, CONCAT("&gt;", $A36))</f>
-        <v>17880.8142</v>
+        <v>16741.9842</v>
       </c>
       <c r="J38" s="63"/>
       <c r="K38" s="75" t="s">
@@ -20393,7 +20393,7 @@
       </c>
       <c r="C40" s="76">
         <f>SUMIFS('Trading History'!$M$4:$M1005, 'Trading History'!$K$4:$K1005, CONCAT("&gt;", $A36))</f>
-        <v>39619.5796</v>
+        <v>37341.9196</v>
       </c>
       <c r="D40" s="63"/>
       <c r="E40" s="73" t="s">
@@ -20401,7 +20401,7 @@
       </c>
       <c r="F40" s="76">
         <f>SUMIFS('Trading History'!$Q$4:$Q1005, 'Trading History'!$O$4:$O1005, CONCAT("&gt;", $A36))</f>
-        <v>19808.4654</v>
+        <v>18669.6354</v>
       </c>
       <c r="G40" s="63"/>
       <c r="H40" s="74" t="s">
@@ -20409,7 +20409,7 @@
       </c>
       <c r="I40" s="76">
         <f>SUMIFS('Trading History'!$U$4:$U1005, 'Trading History'!$S$4:$S1005, CONCAT("&gt;", $A36))</f>
-        <v>19811.1142</v>
+        <v>18672.2842</v>
       </c>
       <c r="J40" s="63"/>
       <c r="K40" s="75" t="s">
@@ -20543,7 +20543,7 @@
       </c>
       <c r="C44" s="62">
         <f>IFERROR(Index!C45/(Index!C43*Index!$C$2), 0)</f>
-        <v>0.8957931622</v>
+        <v>0.8902834373</v>
       </c>
       <c r="D44" s="63"/>
       <c r="E44" s="73" t="s">
@@ -20551,7 +20551,7 @@
       </c>
       <c r="F44" s="62">
         <f>IFERROR(Index!F45/(Index!F43*Index!$C$2), 0)</f>
-        <v>0.900441834</v>
+        <v>0.8952160444</v>
       </c>
       <c r="G44" s="63"/>
       <c r="H44" s="74" t="s">
@@ -20559,7 +20559,7 @@
       </c>
       <c r="I44" s="62">
         <f>IFERROR(Index!I45/(Index!I43*Index!$C$2), 0)</f>
-        <v>0.8911444904</v>
+        <v>0.8853508302</v>
       </c>
       <c r="J44" s="63"/>
       <c r="K44" s="75" t="s">
@@ -20567,7 +20567,7 @@
       </c>
       <c r="L44" s="62">
         <f>IFERROR(Index!L45/(Index!L43*Index!$C$2), 0)</f>
-        <v>0.02405048841</v>
+        <v>0.02551946325</v>
       </c>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
@@ -20590,7 +20590,7 @@
       </c>
       <c r="C45" s="76">
         <f>SUMIFS('Trading History'!$L$4:$L1005, 'Trading History'!$K$4:$K1005, CONCAT("&gt;", $A43))</f>
-        <v>35948.1796</v>
+        <v>33670.5196</v>
       </c>
       <c r="D45" s="63"/>
       <c r="E45" s="73" t="s">
@@ -20598,7 +20598,7 @@
       </c>
       <c r="F45" s="76">
         <f>SUMIFS('Trading History'!$P$4:$P1005, 'Trading History'!$O$4:$O1005, CONCAT("&gt;", $A43))</f>
-        <v>18067.3654</v>
+        <v>16928.5354</v>
       </c>
       <c r="G45" s="63"/>
       <c r="H45" s="74" t="s">
@@ -20606,7 +20606,7 @@
       </c>
       <c r="I45" s="76">
         <f>SUMIFS('Trading History'!$T$4:$T1005, 'Trading History'!$S$4:$S1005, CONCAT("&gt;", $A43))</f>
-        <v>17880.8142</v>
+        <v>16741.9842</v>
       </c>
       <c r="J45" s="63"/>
       <c r="K45" s="75" t="s">
@@ -20684,7 +20684,7 @@
       </c>
       <c r="C47" s="76">
         <f>SUMIFS('Trading History'!$M$4:$M1005, 'Trading History'!$K$4:$K1005, CONCAT("&gt;", $A43))</f>
-        <v>39619.5796</v>
+        <v>37341.9196</v>
       </c>
       <c r="D47" s="63"/>
       <c r="E47" s="73" t="s">
@@ -20692,7 +20692,7 @@
       </c>
       <c r="F47" s="76">
         <f>SUMIFS('Trading History'!$Q$4:$Q1005, 'Trading History'!$O$4:$O1005, CONCAT("&gt;", $A43))</f>
-        <v>19808.4654</v>
+        <v>18669.6354</v>
       </c>
       <c r="G47" s="63"/>
       <c r="H47" s="74" t="s">
@@ -20700,7 +20700,7 @@
       </c>
       <c r="I47" s="76">
         <f>SUMIFS('Trading History'!$U$4:$U1005, 'Trading History'!$S$4:$S1005, CONCAT("&gt;", $A43))</f>
-        <v>19811.1142</v>
+        <v>18672.2842</v>
       </c>
       <c r="J47" s="63"/>
       <c r="K47" s="75" t="s">
@@ -20834,7 +20834,7 @@
       </c>
       <c r="C51" s="62">
         <f>IFERROR(Index!C52/(Index!C50*Index!$C$2), 0)</f>
-        <v>0.8957931622</v>
+        <v>0.8902834373</v>
       </c>
       <c r="D51" s="63"/>
       <c r="E51" s="73" t="s">
@@ -20842,7 +20842,7 @@
       </c>
       <c r="F51" s="62">
         <f>IFERROR(Index!F52/(Index!F50*Index!$C$2), 0)</f>
-        <v>0.900441834</v>
+        <v>0.8952160444</v>
       </c>
       <c r="G51" s="63"/>
       <c r="H51" s="74" t="s">
@@ -20850,7 +20850,7 @@
       </c>
       <c r="I51" s="62">
         <f>IFERROR(Index!I52/(Index!I50*Index!$C$2), 0)</f>
-        <v>0.8911444904</v>
+        <v>0.8853508302</v>
       </c>
       <c r="J51" s="63"/>
       <c r="K51" s="75" t="s">
@@ -20858,7 +20858,7 @@
       </c>
       <c r="L51" s="62">
         <f>IFERROR(Index!L52/(Index!L50*Index!$C$2), 0)</f>
-        <v>0.02337166985</v>
+        <v>0.02479918327</v>
       </c>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
@@ -20881,7 +20881,7 @@
       </c>
       <c r="C52" s="76">
         <f>SUMIFS('Trading History'!$L$4:$L1005, 'Trading History'!$K$4:$K1005, CONCAT("&gt;", $A50))</f>
-        <v>35948.1796</v>
+        <v>33670.5196</v>
       </c>
       <c r="D52" s="63"/>
       <c r="E52" s="73" t="s">
@@ -20889,7 +20889,7 @@
       </c>
       <c r="F52" s="76">
         <f>SUMIFS('Trading History'!$P$4:$P1005, 'Trading History'!$O$4:$O1005, CONCAT("&gt;", $A50))</f>
-        <v>18067.3654</v>
+        <v>16928.5354</v>
       </c>
       <c r="G52" s="63"/>
       <c r="H52" s="74" t="s">
@@ -20897,7 +20897,7 @@
       </c>
       <c r="I52" s="76">
         <f>SUMIFS('Trading History'!$T$4:$T1005, 'Trading History'!$S$4:$S1005, CONCAT("&gt;", $A50))</f>
-        <v>17880.8142</v>
+        <v>16741.9842</v>
       </c>
       <c r="J52" s="63"/>
       <c r="K52" s="75" t="s">
@@ -20975,7 +20975,7 @@
       </c>
       <c r="C54" s="76">
         <f>SUMIFS('Trading History'!$M$4:$M1005, 'Trading History'!$K$4:$K1005, CONCAT("&gt;", $A50))</f>
-        <v>39619.5796</v>
+        <v>37341.9196</v>
       </c>
       <c r="D54" s="63"/>
       <c r="E54" s="73" t="s">
@@ -20983,7 +20983,7 @@
       </c>
       <c r="F54" s="76">
         <f>SUMIFS('Trading History'!$Q$4:$Q1005, 'Trading History'!$O$4:$O1005, CONCAT("&gt;", $A50))</f>
-        <v>19808.4654</v>
+        <v>18669.6354</v>
       </c>
       <c r="G54" s="63"/>
       <c r="H54" s="74" t="s">
@@ -20991,7 +20991,7 @@
       </c>
       <c r="I54" s="76">
         <f>SUMIFS('Trading History'!$U$4:$U1005, 'Trading History'!$S$4:$S1005, CONCAT("&gt;", $A50))</f>
-        <v>19811.1142</v>
+        <v>18672.2842</v>
       </c>
       <c r="J54" s="63"/>
       <c r="K54" s="75" t="s">
@@ -21125,7 +21125,7 @@
       </c>
       <c r="C58" s="62">
         <f>IFERROR(Index!C59/(Index!C57*Index!$C$2), 0)</f>
-        <v>0.8957931622</v>
+        <v>0.8902834373</v>
       </c>
       <c r="D58" s="63"/>
       <c r="E58" s="73" t="s">
@@ -21133,7 +21133,7 @@
       </c>
       <c r="F58" s="62">
         <f>IFERROR(Index!F59/(Index!F57*Index!$C$2), 0)</f>
-        <v>0.900441834</v>
+        <v>0.8952160444</v>
       </c>
       <c r="G58" s="63"/>
       <c r="H58" s="74" t="s">
@@ -21141,7 +21141,7 @@
       </c>
       <c r="I58" s="62">
         <f>IFERROR(Index!I59/(Index!I57*Index!$C$2), 0)</f>
-        <v>0.8911444904</v>
+        <v>0.8853508302</v>
       </c>
       <c r="J58" s="63"/>
       <c r="K58" s="75" t="s">
@@ -21149,7 +21149,7 @@
       </c>
       <c r="L58" s="62">
         <f>IFERROR(Index!L59/(Index!L57*Index!$C$2), 0)</f>
-        <v>0.0185566682</v>
+        <v>0.01969008712</v>
       </c>
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
@@ -21172,7 +21172,7 @@
       </c>
       <c r="C59" s="76">
         <f>SUMIFS('Trading History'!$L$4:$L1005, 'Trading History'!$K$4:$K1005, CONCAT("&gt;", $A57))</f>
-        <v>35948.1796</v>
+        <v>33670.5196</v>
       </c>
       <c r="D59" s="63"/>
       <c r="E59" s="73" t="s">
@@ -21180,7 +21180,7 @@
       </c>
       <c r="F59" s="76">
         <f>SUMIFS('Trading History'!$P$4:$P1005, 'Trading History'!$O$4:$O1005, CONCAT("&gt;", $A57))</f>
-        <v>18067.3654</v>
+        <v>16928.5354</v>
       </c>
       <c r="G59" s="63"/>
       <c r="H59" s="74" t="s">
@@ -21188,7 +21188,7 @@
       </c>
       <c r="I59" s="76">
         <f>SUMIFS('Trading History'!$T$4:$T1005, 'Trading History'!$S$4:$S1005, CONCAT("&gt;", $A57))</f>
-        <v>17880.8142</v>
+        <v>16741.9842</v>
       </c>
       <c r="J59" s="63"/>
       <c r="K59" s="75" t="s">
@@ -21266,7 +21266,7 @@
       </c>
       <c r="C61" s="76">
         <f>SUMIFS('Trading History'!$M$4:$M1005, 'Trading History'!$K$4:$K1005, CONCAT("&gt;", $A57))</f>
-        <v>39619.5796</v>
+        <v>37341.9196</v>
       </c>
       <c r="D61" s="63"/>
       <c r="E61" s="73" t="s">
@@ -21274,7 +21274,7 @@
       </c>
       <c r="F61" s="76">
         <f>SUMIFS('Trading History'!$Q$4:$Q1005, 'Trading History'!$O$4:$O1005, CONCAT("&gt;", $A57))</f>
-        <v>19808.4654</v>
+        <v>18669.6354</v>
       </c>
       <c r="G61" s="63"/>
       <c r="H61" s="74" t="s">
@@ -21282,7 +21282,7 @@
       </c>
       <c r="I61" s="76">
         <f>SUMIFS('Trading History'!$U$4:$U1005, 'Trading History'!$S$4:$S1005, CONCAT("&gt;", $A57))</f>
-        <v>19811.1142</v>
+        <v>18672.2842</v>
       </c>
       <c r="J61" s="63"/>
       <c r="K61" s="75" t="s">
@@ -21416,7 +21416,7 @@
       </c>
       <c r="C65" s="62">
         <f>IFERROR(Index!C66/(Index!C64*Index!$C$2), 0)</f>
-        <v>0.8957931622</v>
+        <v>0.8902834373</v>
       </c>
       <c r="D65" s="63"/>
       <c r="E65" s="73" t="s">
@@ -21424,7 +21424,7 @@
       </c>
       <c r="F65" s="62">
         <f>IFERROR(Index!F66/(Index!F64*Index!$C$2), 0)</f>
-        <v>0.900441834</v>
+        <v>0.8952160444</v>
       </c>
       <c r="G65" s="63"/>
       <c r="H65" s="74" t="s">
@@ -21432,7 +21432,7 @@
       </c>
       <c r="I65" s="62">
         <f>IFERROR(Index!I66/(Index!I64*Index!$C$2), 0)</f>
-        <v>0.8911444904</v>
+        <v>0.8853508302</v>
       </c>
       <c r="J65" s="63"/>
       <c r="K65" s="75" t="s">
@@ -21440,7 +21440,7 @@
       </c>
       <c r="L65" s="62">
         <f>IFERROR(Index!L66/(Index!L64*Index!$C$2), 0)</f>
-        <v>0.0185566682</v>
+        <v>0.01969008712</v>
       </c>
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
@@ -21463,7 +21463,7 @@
       </c>
       <c r="C66" s="76">
         <f>SUMIFS('Trading History'!$L$4:$L1005, 'Trading History'!$K$4:$K1005, CONCAT("&gt;", $A64))</f>
-        <v>35948.1796</v>
+        <v>33670.5196</v>
       </c>
       <c r="D66" s="63"/>
       <c r="E66" s="73" t="s">
@@ -21471,7 +21471,7 @@
       </c>
       <c r="F66" s="76">
         <f>SUMIFS('Trading History'!$P$4:$P1005, 'Trading History'!$O$4:$O1005, CONCAT("&gt;", $A64))</f>
-        <v>18067.3654</v>
+        <v>16928.5354</v>
       </c>
       <c r="G66" s="63"/>
       <c r="H66" s="74" t="s">
@@ -21479,7 +21479,7 @@
       </c>
       <c r="I66" s="76">
         <f>SUMIFS('Trading History'!$T$4:$T1005, 'Trading History'!$S$4:$S1005, CONCAT("&gt;", $A64))</f>
-        <v>17880.8142</v>
+        <v>16741.9842</v>
       </c>
       <c r="J66" s="63"/>
       <c r="K66" s="75" t="s">
@@ -21557,7 +21557,7 @@
       </c>
       <c r="C68" s="76">
         <f>SUMIFS('Trading History'!$M$4:$M1005, 'Trading History'!$K$4:$K1005, CONCAT("&gt;", $A64))</f>
-        <v>39619.5796</v>
+        <v>37341.9196</v>
       </c>
       <c r="D68" s="63"/>
       <c r="E68" s="73" t="s">
@@ -21565,7 +21565,7 @@
       </c>
       <c r="F68" s="76">
         <f>SUMIFS('Trading History'!$Q$4:$Q1005, 'Trading History'!$O$4:$O1005, CONCAT("&gt;", $A64))</f>
-        <v>19808.4654</v>
+        <v>18669.6354</v>
       </c>
       <c r="G68" s="63"/>
       <c r="H68" s="74" t="s">
@@ -21573,7 +21573,7 @@
       </c>
       <c r="I68" s="76">
         <f>SUMIFS('Trading History'!$U$4:$U1005, 'Trading History'!$S$4:$S1005, CONCAT("&gt;", $A64))</f>
-        <v>19811.1142</v>
+        <v>18672.2842</v>
       </c>
       <c r="J68" s="63"/>
       <c r="K68" s="75" t="s">
@@ -21707,7 +21707,7 @@
       </c>
       <c r="C72" s="62">
         <f>IFERROR(Index!C73/(Index!C71*Index!$C$2), 0)</f>
-        <v>0.8957931622</v>
+        <v>0.8902834373</v>
       </c>
       <c r="D72" s="63"/>
       <c r="E72" s="73" t="s">
@@ -21715,7 +21715,7 @@
       </c>
       <c r="F72" s="62">
         <f>IFERROR(Index!F73/(Index!F71*Index!$C$2), 0)</f>
-        <v>0.900441834</v>
+        <v>0.8952160444</v>
       </c>
       <c r="G72" s="63"/>
       <c r="H72" s="74" t="s">
@@ -21723,7 +21723,7 @@
       </c>
       <c r="I72" s="62">
         <f>IFERROR(Index!I73/(Index!I71*Index!$C$2), 0)</f>
-        <v>0.8911444904</v>
+        <v>0.8853508302</v>
       </c>
       <c r="J72" s="63"/>
       <c r="K72" s="75" t="s">
@@ -21731,7 +21731,7 @@
       </c>
       <c r="L72" s="62">
         <f>IFERROR(Index!L73/(Index!L71*Index!$C$2), 0)</f>
-        <v>0.0185566682</v>
+        <v>0.01969008712</v>
       </c>
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
@@ -21754,7 +21754,7 @@
       </c>
       <c r="C73" s="76">
         <f>SUMIFS('Trading History'!$L$4:$L1005, 'Trading History'!$K$4:$K1005, CONCAT("&gt;", $A71))</f>
-        <v>35948.1796</v>
+        <v>33670.5196</v>
       </c>
       <c r="D73" s="63"/>
       <c r="E73" s="73" t="s">
@@ -21762,7 +21762,7 @@
       </c>
       <c r="F73" s="76">
         <f>SUMIFS('Trading History'!$P$4:$P1005, 'Trading History'!$O$4:$O1005, CONCAT("&gt;", $A71))</f>
-        <v>18067.3654</v>
+        <v>16928.5354</v>
       </c>
       <c r="G73" s="63"/>
       <c r="H73" s="74" t="s">
@@ -21770,7 +21770,7 @@
       </c>
       <c r="I73" s="76">
         <f>SUMIFS('Trading History'!$T$4:$T1005, 'Trading History'!$S$4:$S1005, CONCAT("&gt;", $A71))</f>
-        <v>17880.8142</v>
+        <v>16741.9842</v>
       </c>
       <c r="J73" s="63"/>
       <c r="K73" s="75" t="s">
@@ -21848,7 +21848,7 @@
       </c>
       <c r="C75" s="76">
         <f>SUMIFS('Trading History'!$M$4:$M1005, 'Trading History'!$K$4:$K1005, CONCAT("&gt;", $A71))</f>
-        <v>39619.5796</v>
+        <v>37341.9196</v>
       </c>
       <c r="D75" s="63"/>
       <c r="E75" s="73" t="s">
@@ -21856,7 +21856,7 @@
       </c>
       <c r="F75" s="76">
         <f>SUMIFS('Trading History'!$Q$4:$Q1005, 'Trading History'!$O$4:$O1005, CONCAT("&gt;", $A71))</f>
-        <v>19808.4654</v>
+        <v>18669.6354</v>
       </c>
       <c r="G75" s="63"/>
       <c r="H75" s="74" t="s">
@@ -21864,7 +21864,7 @@
       </c>
       <c r="I75" s="76">
         <f>SUMIFS('Trading History'!$U$4:$U1005, 'Trading History'!$S$4:$S1005, CONCAT("&gt;", $A71))</f>
-        <v>19811.1142</v>
+        <v>18672.2842</v>
       </c>
       <c r="J75" s="63"/>
       <c r="K75" s="75" t="s">
@@ -21998,7 +21998,7 @@
       </c>
       <c r="C79" s="62">
         <f>IFERROR(Index!C80/(Index!C78*Index!$C$2), 0)</f>
-        <v>0.8957931622</v>
+        <v>0.8902834373</v>
       </c>
       <c r="D79" s="63"/>
       <c r="E79" s="73" t="s">
@@ -22006,7 +22006,7 @@
       </c>
       <c r="F79" s="62">
         <f>IFERROR(Index!F80/(Index!F78*Index!$C$2), 0)</f>
-        <v>0.900441834</v>
+        <v>0.8952160444</v>
       </c>
       <c r="G79" s="63"/>
       <c r="H79" s="74" t="s">
@@ -22014,7 +22014,7 @@
       </c>
       <c r="I79" s="62">
         <f>IFERROR(Index!I80/(Index!I78*Index!$C$2), 0)</f>
-        <v>0.8911444904</v>
+        <v>0.8853508302</v>
       </c>
       <c r="J79" s="63"/>
       <c r="K79" s="75" t="s">
@@ -22022,7 +22022,7 @@
       </c>
       <c r="L79" s="62">
         <f>IFERROR(Index!L80/(Index!L78*Index!$C$2), 0)</f>
-        <v>0.0185566682</v>
+        <v>0.01969008712</v>
       </c>
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
@@ -22045,7 +22045,7 @@
       </c>
       <c r="C80" s="76">
         <f>SUMIFS('Trading History'!$L$4:$L1005, 'Trading History'!$K$4:$K1005, CONCAT("&gt;", $A78))</f>
-        <v>35948.1796</v>
+        <v>33670.5196</v>
       </c>
       <c r="D80" s="63"/>
       <c r="E80" s="73" t="s">
@@ -22053,7 +22053,7 @@
       </c>
       <c r="F80" s="76">
         <f>SUMIFS('Trading History'!$P$4:$P1005, 'Trading History'!$O$4:$O1005, CONCAT("&gt;", $A78))</f>
-        <v>18067.3654</v>
+        <v>16928.5354</v>
       </c>
       <c r="G80" s="63"/>
       <c r="H80" s="74" t="s">
@@ -22061,7 +22061,7 @@
       </c>
       <c r="I80" s="76">
         <f>SUMIFS('Trading History'!$T$4:$T1005, 'Trading History'!$S$4:$S1005, CONCAT("&gt;", $A78))</f>
-        <v>17880.8142</v>
+        <v>16741.9842</v>
       </c>
       <c r="J80" s="63"/>
       <c r="K80" s="75" t="s">
@@ -22139,7 +22139,7 @@
       </c>
       <c r="C82" s="76">
         <f>SUMIFS('Trading History'!$M$4:$M1005, 'Trading History'!$K$4:$K1005, CONCAT("&gt;", $A78))</f>
-        <v>39619.5796</v>
+        <v>37341.9196</v>
       </c>
       <c r="D82" s="63"/>
       <c r="E82" s="73" t="s">
@@ -22147,7 +22147,7 @@
       </c>
       <c r="F82" s="76">
         <f>SUMIFS('Trading History'!$Q$4:$Q1005, 'Trading History'!$O$4:$O1005, CONCAT("&gt;", $A78))</f>
-        <v>19808.4654</v>
+        <v>18669.6354</v>
       </c>
       <c r="G82" s="63"/>
       <c r="H82" s="74" t="s">
@@ -22155,7 +22155,7 @@
       </c>
       <c r="I82" s="76">
         <f>SUMIFS('Trading History'!$U$4:$U1005, 'Trading History'!$S$4:$S1005, CONCAT("&gt;", $A78))</f>
-        <v>19811.1142</v>
+        <v>18672.2842</v>
       </c>
       <c r="J82" s="63"/>
       <c r="K82" s="75" t="s">
@@ -22289,7 +22289,7 @@
       </c>
       <c r="C86" s="62">
         <f>IFERROR(Index!C87/(Index!C85*Index!$C$2), 0)</f>
-        <v>0.8957931622</v>
+        <v>0.8902834373</v>
       </c>
       <c r="D86" s="63"/>
       <c r="E86" s="73" t="s">
@@ -22297,7 +22297,7 @@
       </c>
       <c r="F86" s="62">
         <f>IFERROR(Index!F87/(Index!F85*Index!$C$2), 0)</f>
-        <v>0.900441834</v>
+        <v>0.8952160444</v>
       </c>
       <c r="G86" s="63"/>
       <c r="H86" s="74" t="s">
@@ -22305,7 +22305,7 @@
       </c>
       <c r="I86" s="62">
         <f>IFERROR(Index!I87/(Index!I85*Index!$C$2), 0)</f>
-        <v>0.8911444904</v>
+        <v>0.8853508302</v>
       </c>
       <c r="J86" s="63"/>
       <c r="K86" s="75" t="s">
@@ -22313,7 +22313,7 @@
       </c>
       <c r="L86" s="62">
         <f>IFERROR(Index!L87/(Index!L85*Index!$C$2), 0)</f>
-        <v>0.0185566682</v>
+        <v>0.01969008712</v>
       </c>
       <c r="M86" s="3"/>
       <c r="N86" s="3"/>
@@ -22336,7 +22336,7 @@
       </c>
       <c r="C87" s="76">
         <f>SUMIFS('Trading History'!$L$4:$L1005, 'Trading History'!$K$4:$K1005, CONCAT("&gt;", $A85))</f>
-        <v>35948.1796</v>
+        <v>33670.5196</v>
       </c>
       <c r="D87" s="63"/>
       <c r="E87" s="73" t="s">
@@ -22344,7 +22344,7 @@
       </c>
       <c r="F87" s="76">
         <f>SUMIFS('Trading History'!$P$4:$P1005, 'Trading History'!$O$4:$O1005, CONCAT("&gt;", $A85))</f>
-        <v>18067.3654</v>
+        <v>16928.5354</v>
       </c>
       <c r="G87" s="63"/>
       <c r="H87" s="74" t="s">
@@ -22352,7 +22352,7 @@
       </c>
       <c r="I87" s="76">
         <f>SUMIFS('Trading History'!$T$4:$T1005, 'Trading History'!$S$4:$S1005, CONCAT("&gt;", $A85))</f>
-        <v>17880.8142</v>
+        <v>16741.9842</v>
       </c>
       <c r="J87" s="63"/>
       <c r="K87" s="75" t="s">
@@ -22430,7 +22430,7 @@
       </c>
       <c r="C89" s="76">
         <f>SUMIFS('Trading History'!$M$4:$M1005, 'Trading History'!$K$4:$K1005, CONCAT("&gt;", $A85))</f>
-        <v>39619.5796</v>
+        <v>37341.9196</v>
       </c>
       <c r="D89" s="63"/>
       <c r="E89" s="73" t="s">
@@ -22438,7 +22438,7 @@
       </c>
       <c r="F89" s="76">
         <f>SUMIFS('Trading History'!$Q$4:$Q1005, 'Trading History'!$O$4:$O1005, CONCAT("&gt;", $A85))</f>
-        <v>19808.4654</v>
+        <v>18669.6354</v>
       </c>
       <c r="G89" s="63"/>
       <c r="H89" s="74" t="s">
@@ -22446,7 +22446,7 @@
       </c>
       <c r="I89" s="76">
         <f>SUMIFS('Trading History'!$U$4:$U1005, 'Trading History'!$S$4:$S1005, CONCAT("&gt;", $A85))</f>
-        <v>19811.1142</v>
+        <v>18672.2842</v>
       </c>
       <c r="J89" s="63"/>
       <c r="K89" s="75" t="s">
